--- a/resources/terminology.xlsx
+++ b/resources/terminology.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/projects/g2sq/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/jdurazo_worldbank_org/Documents/COUNTRIES/QA-GB/DataQA-GB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9164088-EE97-47B9-9E5A-DD5D531BDB69}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
+    <workbookView xWindow="2508" yWindow="2640" windowWidth="17592" windowHeight="8376" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
   <si>
     <t>Pilot</t>
   </si>
@@ -43,13 +53,13 @@
     <t>Final field test</t>
   </si>
   <si>
-    <t>At the end of fieldworker training for trainees to test all survey instruments and protocols and to assess team’s readiness for the field.</t>
+    <t>Visits to households at the end of fieldworker training, to assess trainee's readiness for fieldwork, which often also serves as a final test of all survey instruments and protocols.</t>
   </si>
   <si>
     <t>Questionnaire</t>
   </si>
   <si>
-    <t>The form comprised group of questions.</t>
+    <t>Form or document comprised of group of questions, used to interview survey respondents.</t>
   </si>
   <si>
     <t>Interview</t>
@@ -58,29 +68,61 @@
     <t>The act of interviewing a respondent or a completed questionnaire with responses recorded.</t>
   </si>
   <si>
-    <t>Data monitors</t>
-  </si>
-  <si>
-    <t>The role conducting field checks.</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>Definition</t>
+    <t>Data monitor</t>
+  </si>
+  <si>
+    <t>The role of those conducting quality assurance checks of income fieldwork data.</t>
+  </si>
+  <si>
+    <t>Field practice</t>
+  </si>
+  <si>
+    <t>Visits to households during fiedlworker training, so that trainees can practice interview techniques.</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Composed of one person or multiple people, a household is often defined using a combination of criteria, such as time spent in the household, the pooling of resources, and communal eating habits. Household members may be related or unrelated or a combination of both. It is important to note that the concepts of family and household, though they overlap, are not the same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A more extensive test (than a pre-test), which involves implementing the questionnaire in its entirety in the field with a small subset of households. Pilots are conducted to ensure that the wording of questions reliably elicits the desired information from respondents, as well as to test overall fieldwork coordination, supervision, and logistics, including the length of interviews, expected field schedule, estimated budget, and so on. </t>
+  </si>
+  <si>
+    <t>Pre-test</t>
+  </si>
+  <si>
+    <t>Evaluates the software (CAPI or the data entry program, if using PAPI) to ensure that survey data is entered correctly, the questionnaire flow is consistent, and data checks are complete. This can be done with a very small sample – even just a handfull of households – as long as all the modules are administered.</t>
+  </si>
+  <si>
+    <t>Interview mode</t>
+  </si>
+  <si>
+    <t>The way interviews are being conducted, usually in person, over the phone, or self-administered.</t>
+  </si>
+  <si>
+    <t>Data collection mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The way survey data is collected. Traditionally, most surveys were conducted using PAPI, Paper Assisted Personal Interviewing, where responses were recorded on paper questionnaires and entered centrally after fieldwork. In, CAFE, Computer Assisted Field Entry, data entry is happening in the field during fieldwork, usually to allow timley computer assisted data checks. In CAPI mode, interviewers record responses of a personal interview in an electronic questionnaire form on a phone or tablet. In CATI mode, Computer Assisted Telephone Interviewing, interviews are conducted over the phone and responses recorded in an elctronic quesitonnaire on a computer, tablet or phone. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,8 +145,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,63 +476,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="7" spans="1:2" ht="28.9">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="72">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="91.5">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="76.5">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="152.25">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/resources/terminology.xlsx
+++ b/resources/terminology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/jdurazo_worldbank_org/Documents/COUNTRIES/QA-GB/DataQA-GB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9164088-EE97-47B9-9E5A-DD5D531BDB69}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740FD5FE-700A-4B15-B13C-94D180E6EFA8}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2640" windowWidth="17592" windowHeight="8376" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Concept</t>
   </si>
@@ -53,13 +53,13 @@
     <t>Final field test</t>
   </si>
   <si>
-    <t>Visits to households at the end of fieldworker training, to assess trainee's readiness for fieldwork, which often also serves as a final test of all survey instruments and protocols.</t>
+    <t>Visits to households for practice interviews at the end of fieldworker training, to assess the trainees' readiness for fieldwork, which often also serves as a final test of all survey instruments and protocols.</t>
   </si>
   <si>
     <t>Questionnaire</t>
   </si>
   <si>
-    <t>Form or document comprised of group of questions, used to interview survey respondents.</t>
+    <t>A questionnaire is a research instrument consisting of a series of questions for the purpose of gathering information from respondents.</t>
   </si>
   <si>
     <t>Interview</t>
@@ -71,13 +71,13 @@
     <t>Data monitor</t>
   </si>
   <si>
-    <t>The role of those conducting quality assurance checks of income fieldwork data.</t>
+    <t>The role of those conducting quality assurance checks of incoming fieldwork data.</t>
   </si>
   <si>
     <t>Field practice</t>
   </si>
   <si>
-    <t>Visits to households during fiedlworker training, so that trainees can practice interview techniques.</t>
+    <t>Visits to households during fieldwork training, so that trainees can practice interview techniques.</t>
   </si>
   <si>
     <t>Household</t>
@@ -92,7 +92,7 @@
     <t>Pre-test</t>
   </si>
   <si>
-    <t>Evaluates the software (CAPI or the data entry program, if using PAPI) to ensure that survey data is entered correctly, the questionnaire flow is consistent, and data checks are complete. This can be done with a very small sample – even just a handfull of households – as long as all the modules are administered.</t>
+    <t>Evaluates the software (CAPI or the data entry program, if using PAPI) to ensure that survey data are entered correctly, the questionnaire flow is consistent, and data checks are complete. This can be done with a very small sample – even just a handful of households – as long as all the modules are administered.</t>
   </si>
   <si>
     <t>Interview mode</t>
@@ -104,7 +104,10 @@
     <t>Data collection mode</t>
   </si>
   <si>
-    <t xml:space="preserve">The way survey data is collected. Traditionally, most surveys were conducted using PAPI, Paper Assisted Personal Interviewing, where responses were recorded on paper questionnaires and entered centrally after fieldwork. In, CAFE, Computer Assisted Field Entry, data entry is happening in the field during fieldwork, usually to allow timley computer assisted data checks. In CAPI mode, interviewers record responses of a personal interview in an electronic questionnaire form on a phone or tablet. In CATI mode, Computer Assisted Telephone Interviewing, interviews are conducted over the phone and responses recorded in an elctronic quesitonnaire on a computer, tablet or phone. </t>
+    <t xml:space="preserve">The way survey data are collected. Traditionally, most surveys were conducted using PAPI, Paper Assisted Personal Interviewing, where responses were recorded on paper questionnaires and entered centrally after fieldwork. In, CAFE, Computer Assisted Field Entry, data entry happens in the field during fieldwork, usually to allow timely computer assisted data checks. In CAPI mode, interviewers record responses of a personal interview in an electronic questionnaire form on a phone or tablet. In CATI mode, Computer Assisted Telephone Interviewing, interviews are conducted over the phone and responses recorded in an electronic questionnaire on a computer, tablet or phone. </t>
+  </si>
+  <si>
+    <t>Survey</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
@@ -536,7 +539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.9">
+    <row r="7" spans="1:2" ht="30.75">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -582,6 +585,11 @@
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/resources/terminology.xlsx
+++ b/resources/terminology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/jdurazo_worldbank_org/Documents/COUNTRIES/QA-GB/DataQA-GB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{740FD5FE-700A-4B15-B13C-94D180E6EFA8}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{4B91808B-50F0-274E-8222-8FC3931BB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21CD712-BAF4-4B50-863D-EA1D1F47274F}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2640" windowWidth="17592" windowHeight="8376" xr2:uid="{5F610E7D-516F-4D0E-9C99-25E102E12365}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Concept</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A survey is the process of collecting, aggregating, and analyzing the responses from those questionnaires. </t>
   </si>
 </sst>
 </file>
@@ -481,14 +484,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CCDB658-A979-4647-B5F9-26FDB723BC77}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" customWidth="1"/>
+    <col min="2" max="2" width="99" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -591,6 +594,9 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
